--- a/4_outputs/figures/Percentage of men and women in different INDUSTRIAL and MANUFACTURING activities (4Q, 2019).xlsx
+++ b/4_outputs/figures/Percentage of men and women in different INDUSTRIAL and MANUFACTURING activities (4Q, 2019).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter2-PhDthesis\4_outputs\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921BFE9-46D3-49F2-BC52-69E652DF939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327C5C4-6058-42B9-8280-06778B310C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FB5DA40-29A2-4B6B-82D9-CB258D2A3967}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -443,9 +443,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -468,14 +465,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,7 +2151,7 @@
   <dimension ref="B1:AC73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2167,54 +2164,54 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B3" s="7"/>
@@ -2271,13 +2268,13 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>24.37</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>75.63</v>
       </c>
       <c r="E5" s="5"/>
@@ -2304,13 +2301,13 @@
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>33.200000000000003</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>66.8</v>
       </c>
       <c r="E6" s="5"/>
@@ -2337,13 +2334,13 @@
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>50.46</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>49.54</v>
       </c>
       <c r="E7" s="5"/>
@@ -2370,13 +2367,13 @@
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>55.13</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>44.87</v>
       </c>
       <c r="E8" s="5"/>
@@ -2403,13 +2400,13 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>55.91</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>44.09</v>
       </c>
       <c r="E9" s="5"/>
@@ -2436,13 +2433,13 @@
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>59.43</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>40.57</v>
       </c>
       <c r="E10" s="5"/>
@@ -2469,13 +2466,13 @@
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>61.33</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>38.67</v>
       </c>
       <c r="E11" s="5"/>
@@ -2502,13 +2499,13 @@
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>62.64</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>37.36</v>
       </c>
       <c r="E12" s="5"/>
@@ -2535,13 +2532,13 @@
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>62.67</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>37.33</v>
       </c>
       <c r="E13" s="5"/>
@@ -2568,13 +2565,13 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>63.39</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>36.61</v>
       </c>
       <c r="E14" s="5"/>
@@ -2601,13 +2598,13 @@
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>66.239999999999995</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>33.76</v>
       </c>
       <c r="E15" s="5"/>
@@ -2634,13 +2631,13 @@
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>66.819999999999993</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>33.18</v>
       </c>
       <c r="E16" s="5"/>
@@ -2667,13 +2664,13 @@
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>67.36</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>32.64</v>
       </c>
       <c r="E17" s="5"/>
@@ -2700,13 +2697,13 @@
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>74.739999999999995</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>25.26</v>
       </c>
       <c r="E18" s="2"/>
@@ -2733,13 +2730,13 @@
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>78.459999999999994</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>21.54</v>
       </c>
       <c r="E19" s="2"/>
@@ -2766,13 +2763,13 @@
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>79.400000000000006</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>20.6</v>
       </c>
       <c r="F20" s="4"/>
@@ -2798,13 +2795,13 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>80.680000000000007</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>19.32</v>
       </c>
       <c r="F21" s="4"/>
@@ -2830,13 +2827,13 @@
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>82.07</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>17.93</v>
       </c>
       <c r="F22" s="4"/>
@@ -2862,13 +2859,13 @@
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>84.22</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>15.78</v>
       </c>
       <c r="F23" s="4"/>
@@ -2894,13 +2891,13 @@
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>86.91</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>13.09</v>
       </c>
       <c r="AC24" t="s">
@@ -2908,13 +2905,13 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>87.45</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>12.55</v>
       </c>
       <c r="AC25" t="s">
@@ -2922,13 +2919,13 @@
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>89.21</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>10.79</v>
       </c>
       <c r="F26" s="4"/>
@@ -2954,7 +2951,7 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="8"/>
@@ -2979,13 +2976,13 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>62.62</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>37.380000000000003</v>
       </c>
       <c r="F28" s="4"/>
@@ -3008,7 +3005,7 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="8">
@@ -3037,7 +3034,7 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="8">
@@ -3066,7 +3063,7 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B31" s="22" t="s">
+      <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="8">
@@ -3095,7 +3092,7 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="8"/>
@@ -3262,393 +3259,393 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>3110</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>55.13</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>44.87</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>3120</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>78.459999999999994</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>21.54</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>3130</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>62.67</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>37.33</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>3140</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>24.37</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>75.63</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>3150</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>33.200000000000003</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>66.8</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>3160</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>66.239999999999995</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>33.76</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>3210</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>80.680000000000007</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>19.32</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>3220</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>61.33</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>38.67</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>3230</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>67.36</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>32.64</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>3240</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>82.07</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>17.93</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>3250</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>66.819999999999993</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>33.18</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>3260</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>62.64</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>37.36</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>3270</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>84.22</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>15.78</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>3310</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>87.45</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>12.55</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>3320</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>89.21</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>10.79</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>3330</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>79.400000000000006</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>20.6</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>3340</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>55.91</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>44.09</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>3350</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>59.43</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>40.57</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>3360</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>63.39</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>36.61</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>3370</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>86.91</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>13.09</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>3380</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>50.46</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>49.54</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>3399</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>74.739999999999995</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>25.26</v>
       </c>
     </row>
@@ -3662,7 +3659,7 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D3:F24"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3675,393 +3672,393 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>3140</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>24.37</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>75.63</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>3150</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>33.200000000000003</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>66.8</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>3380</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>50.46</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>49.54</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>3110</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>55.13</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>44.87</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>3340</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>55.91</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>44.09</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>3350</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>59.43</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>40.57</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>3220</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>61.33</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>38.67</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>3260</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>62.64</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>37.36</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>3130</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>62.67</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>37.33</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>3360</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>63.39</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>36.61</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>3160</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>66.239999999999995</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>33.76</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>3250</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>66.819999999999993</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>33.18</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>3230</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>67.36</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>32.64</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>3399</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>74.739999999999995</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>25.26</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>3120</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>78.459999999999994</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>21.54</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>3330</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>79.400000000000006</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>20.6</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>3210</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>80.680000000000007</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>19.32</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>3240</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>82.07</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>17.93</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>3270</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>84.22</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>15.78</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>3370</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>86.91</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>13.09</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>3310</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>87.45</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>12.55</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>3320</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>89.21</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>10.79</v>
       </c>
     </row>

--- a/4_outputs/figures/Percentage of men and women in different INDUSTRIAL and MANUFACTURING activities (4Q, 2019).xlsx
+++ b/4_outputs/figures/Percentage of men and women in different INDUSTRIAL and MANUFACTURING activities (4Q, 2019).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter2-PhDthesis\4_outputs\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327C5C4-6058-42B9-8280-06778B310C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC7C76-7936-4890-9757-5071A964B973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FB5DA40-29A2-4B6B-82D9-CB258D2A3967}"/>
   </bookViews>
@@ -67,12 +67,6 @@
     <t>Women</t>
   </si>
   <si>
-    <t>Manufacturing dissagregated</t>
-  </si>
-  <si>
-    <t>SCIAN Categories</t>
-  </si>
-  <si>
     <t>P4A Code</t>
   </si>
   <si>
@@ -244,12 +238,6 @@
     <t>Other manufacturing industries</t>
   </si>
   <si>
-    <t>Manufacture of wearing apparel</t>
-  </si>
-  <si>
-    <t>Manufacture of textile products, except apparel</t>
-  </si>
-  <si>
     <t>Food industry</t>
   </si>
   <si>
@@ -274,13 +262,25 @@
     <t>Manufacture of transport equipment and autoparts</t>
   </si>
   <si>
-    <t>Manufacture of leather, skin and substitute materials</t>
-  </si>
-  <si>
-    <t>Manufacture of electrical equipment, appliances, etc</t>
-  </si>
-  <si>
-    <t>Computers and other electronic components or accessories</t>
+    <t>Manufacture of textile products, except clothing</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Computers and other electronic devices</t>
+  </si>
+  <si>
+    <t>Electrical equipment, appliances, etc</t>
+  </si>
+  <si>
+    <t>Manufacture of leather products</t>
+  </si>
+  <si>
+    <t>(SCIAN categories)</t>
+  </si>
+  <si>
+    <t>(Manufacturing dissagregated)</t>
   </si>
 </sst>
 </file>
@@ -516,9 +516,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.50341252538763848"/>
+          <c:x val="0.31860188880452095"/>
           <c:y val="1.0517166017493277E-2"/>
-          <c:w val="0.47852811528169037"/>
+          <c:w val="0.66171704516076335"/>
           <c:h val="0.90699426808180583"/>
         </c:manualLayout>
       </c:layout>
@@ -566,12 +566,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -615,10 +612,10 @@
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>Manufacture of textile products, except apparel</c:v>
+                  <c:v>Manufacture of textile products, except clothing</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manufacture of wearing apparel</c:v>
+                  <c:v>Clothing</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Other manufacturing industries</c:v>
@@ -627,10 +624,10 @@
                   <c:v>Food industry</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Computers and other electronic components or accessories</c:v>
+                  <c:v>Computers and other electronic devices</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Manufacture of electrical equipment, appliances, etc</c:v>
+                  <c:v>Electrical equipment, appliances, etc</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Paper industry</c:v>
@@ -645,7 +642,7 @@
                   <c:v>Manufacture of transport equipment and autoparts</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Manufacture of leather, skin and substitute materials</c:v>
+                  <c:v>Manufacture of leather products</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Chemical industry </c:v>
@@ -681,7 +678,7 @@
                   <c:v>Manufacture of metal products</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Manufacturing dissagregated</c:v>
+                  <c:v>(Manufacturing dissagregated)</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Manufacturing</c:v>
@@ -696,7 +693,7 @@
                   <c:v>Construction</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>SCIAN Categories</c:v>
+                  <c:v>(SCIAN categories)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -831,12 +828,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -880,10 +874,10 @@
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>Manufacture of textile products, except apparel</c:v>
+                  <c:v>Manufacture of textile products, except clothing</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Manufacture of wearing apparel</c:v>
+                  <c:v>Clothing</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Other manufacturing industries</c:v>
@@ -892,10 +886,10 @@
                   <c:v>Food industry</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Computers and other electronic components or accessories</c:v>
+                  <c:v>Computers and other electronic devices</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Manufacture of electrical equipment, appliances, etc</c:v>
+                  <c:v>Electrical equipment, appliances, etc</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Paper industry</c:v>
@@ -910,7 +904,7 @@
                   <c:v>Manufacture of transport equipment and autoparts</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Manufacture of leather, skin and substitute materials</c:v>
+                  <c:v>Manufacture of leather products</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Chemical industry </c:v>
@@ -946,7 +940,7 @@
                   <c:v>Manufacture of metal products</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Manufacturing dissagregated</c:v>
+                  <c:v>(Manufacturing dissagregated)</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Manufacturing</c:v>
@@ -961,7 +955,7 @@
                   <c:v>Construction</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>SCIAN Categories</c:v>
+                  <c:v>(SCIAN categories)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1102,12 +1096,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1161,12 +1152,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1190,6 +1178,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36273956587019052"/>
+          <c:y val="0.96767332612704748"/>
+          <c:w val="0.24096410182047548"/>
+          <c:h val="2.8544168150547302E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1205,10 +1203,7 @@
           <a:pPr>
             <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -1250,7 +1245,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="2800">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
           <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -1815,15 +1813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>69662</xdr:colOff>
+      <xdr:colOff>66487</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3174</xdr:rowOff>
+      <xdr:rowOff>3173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2151,7 +2149,7 @@
   <dimension ref="B1:AC73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AQ34" sqref="AQ34"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2269,7 +2267,7 @@
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C5" s="13">
         <v>24.37</v>
@@ -2297,12 +2295,12 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="AC5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C6" s="13">
         <v>33.200000000000003</v>
@@ -2330,12 +2328,12 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="AC6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="13">
         <v>50.46</v>
@@ -2363,12 +2361,12 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="AC7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="13">
         <v>55.13</v>
@@ -2396,12 +2394,12 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="AC8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="12">
         <v>55.91</v>
@@ -2429,12 +2427,12 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="AC9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="12">
         <v>59.43</v>
@@ -2462,12 +2460,12 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="AC10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="12">
         <v>61.33</v>
@@ -2495,12 +2493,12 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="AC11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="12">
         <v>62.64</v>
@@ -2528,12 +2526,12 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="AC12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="12">
         <v>62.67</v>
@@ -2561,12 +2559,12 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="AC13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" s="12">
         <v>63.39</v>
@@ -2594,7 +2592,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="AC14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.35">
@@ -2627,12 +2625,12 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="AC15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="12">
         <v>66.819999999999993</v>
@@ -2660,12 +2658,12 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="AC16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" s="12">
         <v>67.36</v>
@@ -2693,12 +2691,12 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="AC17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="12">
         <v>74.739999999999995</v>
@@ -2726,12 +2724,12 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="AC18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="12">
         <v>78.459999999999994</v>
@@ -2759,12 +2757,12 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="AC19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="12">
         <v>79.400000000000006</v>
@@ -2791,12 +2789,12 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="AC20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" s="12">
         <v>80.680000000000007</v>
@@ -2823,12 +2821,12 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="AC21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="12">
         <v>82.07</v>
@@ -2855,12 +2853,12 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="AC22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="12">
         <v>84.22</v>
@@ -2887,12 +2885,12 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="AC23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="12">
         <v>86.91</v>
@@ -2901,12 +2899,12 @@
         <v>13.09</v>
       </c>
       <c r="AC24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="12">
         <v>87.45</v>
@@ -2915,12 +2913,12 @@
         <v>12.55</v>
       </c>
       <c r="AC25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="12">
         <v>89.21</v>
@@ -2947,12 +2945,12 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="AC26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B27" s="19" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3093,7 +3091,7 @@
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B32" s="19" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -3260,13 +3258,13 @@
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>6</v>
@@ -3280,10 +3278,10 @@
         <v>3110</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="13">
         <v>55.13</v>
@@ -3297,10 +3295,10 @@
         <v>3120</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="13">
         <v>78.459999999999994</v>
@@ -3314,10 +3312,10 @@
         <v>3130</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="13">
         <v>62.67</v>
@@ -3331,10 +3329,10 @@
         <v>3140</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="13">
         <v>24.37</v>
@@ -3348,10 +3346,10 @@
         <v>3150</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="12">
         <v>33.200000000000003</v>
@@ -3365,10 +3363,10 @@
         <v>3160</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="12">
         <v>66.239999999999995</v>
@@ -3382,10 +3380,10 @@
         <v>3210</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="12">
         <v>80.680000000000007</v>
@@ -3399,10 +3397,10 @@
         <v>3220</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="12">
         <v>61.33</v>
@@ -3416,10 +3414,10 @@
         <v>3230</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="12">
         <v>67.36</v>
@@ -3433,10 +3431,10 @@
         <v>3240</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="12">
         <v>82.07</v>
@@ -3450,10 +3448,10 @@
         <v>3250</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="12">
         <v>66.819999999999993</v>
@@ -3467,10 +3465,10 @@
         <v>3260</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="12">
         <v>62.64</v>
@@ -3484,10 +3482,10 @@
         <v>3270</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="12">
         <v>84.22</v>
@@ -3501,10 +3499,10 @@
         <v>3310</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="12">
         <v>87.45</v>
@@ -3518,10 +3516,10 @@
         <v>3320</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" s="12">
         <v>89.21</v>
@@ -3535,10 +3533,10 @@
         <v>3330</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="12">
         <v>79.400000000000006</v>
@@ -3552,10 +3550,10 @@
         <v>3340</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="12">
         <v>55.91</v>
@@ -3569,10 +3567,10 @@
         <v>3350</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="12">
         <v>59.43</v>
@@ -3586,10 +3584,10 @@
         <v>3360</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="12">
         <v>63.39</v>
@@ -3603,10 +3601,10 @@
         <v>3370</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="12">
         <v>86.91</v>
@@ -3620,10 +3618,10 @@
         <v>3380</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" s="12">
         <v>50.46</v>
@@ -3637,10 +3635,10 @@
         <v>3399</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="12">
         <v>74.739999999999995</v>
@@ -3673,13 +3671,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>6</v>
@@ -3693,10 +3691,10 @@
         <v>3140</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="13">
         <v>24.37</v>
@@ -3710,10 +3708,10 @@
         <v>3150</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="13">
         <v>33.200000000000003</v>
@@ -3727,10 +3725,10 @@
         <v>3380</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="13">
         <v>50.46</v>
@@ -3744,10 +3742,10 @@
         <v>3110</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="13">
         <v>55.13</v>
@@ -3761,10 +3759,10 @@
         <v>3340</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="12">
         <v>55.91</v>
@@ -3778,10 +3776,10 @@
         <v>3350</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="12">
         <v>59.43</v>
@@ -3795,10 +3793,10 @@
         <v>3220</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="12">
         <v>61.33</v>
@@ -3812,10 +3810,10 @@
         <v>3260</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="12">
         <v>62.64</v>
@@ -3829,10 +3827,10 @@
         <v>3130</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="12">
         <v>62.67</v>
@@ -3846,10 +3844,10 @@
         <v>3360</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12">
         <v>63.39</v>
@@ -3863,10 +3861,10 @@
         <v>3160</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="12">
         <v>66.239999999999995</v>
@@ -3880,10 +3878,10 @@
         <v>3250</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="12">
         <v>66.819999999999993</v>
@@ -3897,10 +3895,10 @@
         <v>3230</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="12">
         <v>67.36</v>
@@ -3914,10 +3912,10 @@
         <v>3399</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="12">
         <v>74.739999999999995</v>
@@ -3931,10 +3929,10 @@
         <v>3120</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="12">
         <v>78.459999999999994</v>
@@ -3948,10 +3946,10 @@
         <v>3330</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="12">
         <v>79.400000000000006</v>
@@ -3965,10 +3963,10 @@
         <v>3210</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="12">
         <v>80.680000000000007</v>
@@ -3982,10 +3980,10 @@
         <v>3240</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="12">
         <v>82.07</v>
@@ -3999,10 +3997,10 @@
         <v>3270</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="12">
         <v>84.22</v>
@@ -4016,10 +4014,10 @@
         <v>3370</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="12">
         <v>86.91</v>
@@ -4033,10 +4031,10 @@
         <v>3310</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="12">
         <v>87.45</v>
@@ -4050,10 +4048,10 @@
         <v>3320</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="12">
         <v>89.21</v>
